--- a/SWOT.xlsx
+++ b/SWOT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSU\2LS\SWI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSU\2LS\SWI\projekt 1\swi_semestral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71E136-37A7-4810-99D6-6E1CE86A7A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC02CC-F250-412C-A531-98CDDF578657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{844FED9F-A95F-48AB-8CC8-56A45EADE33A}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4B8DFB-53B8-46DB-8C54-520F9B47C579}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SWOT.xlsx
+++ b/SWOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSU\2LS\SWI\projekt 1\swi_semestral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC02CC-F250-412C-A531-98CDDF578657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF1729-4A50-44EB-AE3B-9F8E5D94DAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{844FED9F-A95F-48AB-8CC8-56A45EADE33A}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Ztráta dodavatele</t>
   </si>
   <si>
-    <t>Ztráta zákazníka</t>
-  </si>
-  <si>
     <t>Služby pro motocykly a nákladní vozy</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Nábor zaměstnanců - větší produktivita</t>
   </si>
   <si>
-    <t>Důvěryhodost</t>
-  </si>
-  <si>
     <t>Spolupráce s více dodavateli</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Threads</t>
+  </si>
+  <si>
+    <t>Důvěryhodnost</t>
+  </si>
+  <si>
+    <t>Rezervační SW</t>
   </si>
 </sst>
 </file>
@@ -115,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -202,14 +208,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -527,7 +533,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,113 +546,113 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
